--- a/P11/Scrum_Sprint_5.xlsx
+++ b/P11/Scrum_Sprint_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0C67C-8706-46B6-8A7D-CC0EDE2D880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C271B9-F5C0-4EE1-A621-F8AE8B7A601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="167">
   <si>
     <t>Product Name:</t>
   </si>
@@ -533,10 +533,16 @@
     <t>an abstract method</t>
   </si>
   <si>
-    <t>create generic save, then change package store to implement save(bufferedWriter)</t>
-  </si>
-  <si>
     <t>In Work</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 5</t>
+  </si>
+  <si>
+    <t>Completed Day 2</t>
+  </si>
+  <si>
+    <t>create generic saveable, then change package store to implement save(bufferedWriter)</t>
   </si>
 </sst>
 </file>
@@ -2609,22 +2615,22 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4779,7 +4785,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>31</v>
@@ -4812,7 +4818,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>70</v>
@@ -10347,7 +10353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -10486,11 +10492,11 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -10504,7 +10510,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -10522,7 +10528,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -10540,7 +10546,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -10558,7 +10564,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -10576,7 +10582,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10630,7 +10636,7 @@
         <v>160</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F17" s="38"/>
     </row>
@@ -10646,7 +10652,7 @@
         <v>161</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -10659,10 +10665,10 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>163</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>164</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>162</v>

--- a/P11/Scrum_Sprint_5.xlsx
+++ b/P11/Scrum_Sprint_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C271B9-F5C0-4EE1-A621-F8AE8B7A601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5083214-04C4-4E06-B682-E2577AF00CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="168">
   <si>
     <t>Product Name:</t>
   </si>
@@ -530,9 +530,6 @@
     <t>create generic comparable, change store.customer to TreeSet</t>
   </si>
   <si>
-    <t>an abstract method</t>
-  </si>
-  <si>
     <t>In Work</t>
   </si>
   <si>
@@ -542,7 +539,13 @@
     <t>Completed Day 2</t>
   </si>
   <si>
-    <t>create generic saveable, then change package store to implement save(bufferedWriter)</t>
+    <t>Completed Day 3</t>
+  </si>
+  <si>
+    <t>create generic saveable, then change package store to implement saveable(bufferedWriter)</t>
+  </si>
+  <si>
+    <t>an abstract method in saveable?</t>
   </si>
 </sst>
 </file>
@@ -2618,19 +2621,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3729,8 +3732,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4752,7 +4755,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>79</v>
@@ -4818,7 +4821,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>70</v>
@@ -10353,7 +10356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -10510,11 +10513,11 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -10528,7 +10531,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -10546,7 +10549,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -10564,7 +10567,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -10582,7 +10585,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10636,7 +10639,7 @@
         <v>160</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" s="38"/>
     </row>
@@ -10652,7 +10655,7 @@
         <v>161</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -10668,10 +10671,10 @@
         <v>166</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">

--- a/P11/Scrum_Sprint_5.xlsx
+++ b/P11/Scrum_Sprint_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5083214-04C4-4E06-B682-E2577AF00CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69671EEF-F035-49D2-BC62-E22A55E6767E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -530,9 +530,6 @@
     <t>create generic comparable, change store.customer to TreeSet</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Finished in Sprint 5</t>
   </si>
   <si>
@@ -546,6 +543,9 @@
   </si>
   <si>
     <t>an abstract method in saveable?</t>
+  </si>
+  <si>
+    <t>Completed Day 7</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2633,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,8 +3732,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4755,7 +4755,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>79</v>
@@ -4788,7 +4788,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>31</v>
@@ -10356,7 +10356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -10585,11 +10585,11 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -10639,7 +10639,7 @@
         <v>160</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="38"/>
     </row>
@@ -10655,7 +10655,7 @@
         <v>161</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -10668,13 +10668,13 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="38" t="s">
         <v>166</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
